--- a/Results/Analyze_results.xlsx
+++ b/Results/Analyze_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\HUST\HUST-2022-1\Toi uu hoa\Mini Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FD10092-C027-4D02-8F03-D53E805B2BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E973AA1-E9D1-413F-8BE0-C6972650DA1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7C639204-4DF0-443A-A64C-A488E87986ED}"/>
   </bookViews>
@@ -129,12 +129,24 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="8">
@@ -234,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -263,18 +275,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2716,13 +2738,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>124460</xdr:rowOff>
+      <xdr:colOff>581527</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>160421</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>233680</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>23128</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -2751,16 +2773,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>596363</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>20053</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>10026</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3085,28 +3107,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CAF759-3075-4CBF-B813-751E8B53B82B}">
-  <dimension ref="A1:V24"/>
+  <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="14"/>
     </row>
     <row r="4" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -3160,22 +3182,22 @@
       <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="12">
         <v>2</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="15">
         <v>7.8E-2</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="12">
         <v>2</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="15">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="12">
         <v>2</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="15">
         <v>0</v>
       </c>
       <c r="H7" s="8">
@@ -3206,15 +3228,15 @@
       <c r="B8" s="3">
         <v>5</v>
       </c>
-      <c r="C8" s="9"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="3">
         <v>5</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="16"/>
       <c r="F8" s="3">
         <v>6</v>
       </c>
-      <c r="G8" s="9"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -3234,22 +3256,22 @@
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="12">
         <v>2</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="15">
         <v>0.125</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="12">
         <v>2</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="15">
         <v>1.28</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="12">
         <v>3</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="15">
         <v>0</v>
       </c>
       <c r="H9" s="8">
@@ -3282,15 +3304,15 @@
       <c r="B10" s="3">
         <v>5</v>
       </c>
-      <c r="C10" s="9"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="3">
         <v>5</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="16"/>
       <c r="F10" s="3">
         <v>11</v>
       </c>
-      <c r="G10" s="9"/>
+      <c r="G10" s="16"/>
       <c r="H10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
@@ -3310,22 +3332,22 @@
       <c r="A11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="12">
         <v>2</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="15">
         <v>0.23400000000000001</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="12">
         <v>2</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="15">
         <v>1.7649999999999999</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="12">
         <v>3</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="15">
         <v>0</v>
       </c>
       <c r="H11" s="8">
@@ -3358,15 +3380,15 @@
       <c r="B12" s="3">
         <v>5</v>
       </c>
-      <c r="C12" s="9"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="3">
         <v>5</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="16"/>
       <c r="F12" s="3">
         <v>9</v>
       </c>
-      <c r="G12" s="9"/>
+      <c r="G12" s="16"/>
       <c r="H12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
@@ -3386,22 +3408,22 @@
       <c r="A13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="12">
         <v>2</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="15">
         <v>1.4630000000000001</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="12">
         <v>2</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="15">
         <v>6.9820000000000002</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="12">
         <v>2</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="15">
         <v>0</v>
       </c>
       <c r="H13" s="8">
@@ -3431,15 +3453,15 @@
       <c r="B14" s="3">
         <v>6</v>
       </c>
-      <c r="C14" s="9"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="3">
         <v>6</v>
       </c>
-      <c r="E14" s="9"/>
+      <c r="E14" s="16"/>
       <c r="F14" s="3">
         <v>8</v>
       </c>
-      <c r="G14" s="9"/>
+      <c r="G14" s="16"/>
       <c r="H14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
@@ -3456,22 +3478,22 @@
       <c r="A15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="12">
         <v>2</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="15">
         <v>49.96</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="12">
         <v>4</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="15">
         <v>1E-3</v>
       </c>
       <c r="H15" s="8">
@@ -3501,41 +3523,41 @@
       <c r="B16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="9"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="3">
         <v>8</v>
       </c>
-      <c r="E16" s="9"/>
+      <c r="E16" s="16"/>
       <c r="F16" s="3">
         <v>13</v>
       </c>
-      <c r="G16" s="9"/>
+      <c r="G16" s="16"/>
       <c r="H16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
     </row>
-    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="12">
         <v>3</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="15">
         <v>35.56</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="12">
         <v>4</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="15">
         <v>0</v>
       </c>
       <c r="H17" s="8">
@@ -3554,46 +3576,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="9"/>
+      <c r="C18" s="16"/>
       <c r="D18" s="3">
         <v>10</v>
       </c>
-      <c r="E18" s="9"/>
+      <c r="E18" s="16"/>
       <c r="F18" s="3">
         <v>16</v>
       </c>
-      <c r="G18" s="9"/>
+      <c r="G18" s="16"/>
       <c r="H18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
     </row>
-    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="12">
         <v>12</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="15">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H19" s="8" t="s">
@@ -3612,46 +3634,46 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="9"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="9"/>
+      <c r="E20" s="16"/>
       <c r="F20" s="3">
         <v>46</v>
       </c>
-      <c r="G20" s="9"/>
+      <c r="G20" s="16"/>
       <c r="H20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
     </row>
-    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="12">
         <v>52</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="15">
         <v>0.19600000000000001</v>
       </c>
       <c r="H21" s="8" t="s">
@@ -3670,46 +3692,46 @@
         <v>0.19600000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="9"/>
+      <c r="C22" s="16"/>
       <c r="D22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="9"/>
+      <c r="E22" s="16"/>
       <c r="F22" s="3">
         <v>206</v>
       </c>
-      <c r="G22" s="9"/>
+      <c r="G22" s="16"/>
       <c r="H22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
     </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="12">
         <v>190</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="15">
         <v>2.5569999999999999</v>
       </c>
       <c r="H23" s="8" t="s">
@@ -3728,25 +3750,113 @@
         <v>2.5569999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="9"/>
+      <c r="C24" s="16"/>
       <c r="D24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="9"/>
+      <c r="E24" s="16"/>
       <c r="F24" s="3">
         <v>760</v>
       </c>
-      <c r="G24" s="9"/>
+      <c r="G24" s="16"/>
       <c r="H24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+    </row>
+    <row r="33" spans="10:18" x14ac:dyDescent="0.3">
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="86">
